--- a/tabular/eve/epv_refseq_feature_locations.xlsx
+++ b/tabular/eve/epv_refseq_feature_locations.xlsx
@@ -3877,7 +3877,7 @@
   <dimension ref="A1:E1447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4042,7 +4042,7 @@
         <v>1594</v>
       </c>
       <c r="D11" s="8">
-        <v>3728</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="12" spans="1:4">

--- a/tabular/eve/epv_refseq_feature_locations.xlsx
+++ b/tabular/eve/epv_refseq_feature_locations.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Parvoviridae-GLUE/tabular/eve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5678E-D985-DB4F-97DE-EA545B1C38A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="6780" windowWidth="18940" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -55,22 +61,22 @@
     <t>3UTR</t>
   </si>
   <si>
-    <t>REF_dependo.1-macropus</t>
-  </si>
-  <si>
     <t>REF_sha.1-monodelphis</t>
   </si>
   <si>
     <t>REF_proto.4-mus_spicilegus</t>
   </si>
   <si>
-    <t>REF_dependo.10-whippomorpha</t>
+    <t>REF_dependo.0-macropus</t>
+  </si>
+  <si>
+    <t>REF_dependo.1-whippomorpha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3548,6 +3554,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3873,14 +3882,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
@@ -3891,7 +3900,7 @@
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3905,9 +3914,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -3919,9 +3928,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -3933,9 +3942,9 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -3947,9 +3956,9 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -3961,9 +3970,9 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -3975,9 +3984,9 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -3989,9 +3998,9 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -4003,9 +4012,9 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -4017,7 +4026,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4045,644 +4054,644 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="111" spans="5:5">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="5:5">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="5:5">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="5:5">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="5:5">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="5:5">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="1"/>
     </row>
-    <row r="883" spans="3:3">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C883" s="2"/>
     </row>
-    <row r="1019" spans="1:1">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1019" s="2"/>
     </row>
-    <row r="1020" spans="1:1">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1020" s="2"/>
     </row>
-    <row r="1145" spans="1:1">
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1145" s="2"/>
     </row>
-    <row r="1146" spans="1:1">
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1146" s="2"/>
     </row>
-    <row r="1147" spans="1:1">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1147" s="2"/>
     </row>
-    <row r="1148" spans="1:1">
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1148" s="2"/>
     </row>
-    <row r="1149" spans="1:1">
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1149" s="2"/>
     </row>
-    <row r="1150" spans="1:1">
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1150" s="2"/>
     </row>
-    <row r="1195" spans="1:4">
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1195" s="2"/>
       <c r="D1195" s="2"/>
     </row>
-    <row r="1196" spans="1:4">
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1196" s="2"/>
       <c r="D1196" s="2"/>
     </row>
-    <row r="1197" spans="1:4">
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1197" s="2"/>
       <c r="D1197" s="2"/>
     </row>
-    <row r="1199" spans="1:4">
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1199" s="2"/>
     </row>
-    <row r="1200" spans="1:4">
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1200" s="2"/>
     </row>
-    <row r="1201" spans="1:1">
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1201" s="2"/>
     </row>
-    <row r="1202" spans="1:1">
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1202" s="2"/>
     </row>
-    <row r="1203" spans="1:1">
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1203" s="2"/>
     </row>
-    <row r="1222" spans="1:1">
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1222" s="2"/>
     </row>
-    <row r="1223" spans="1:1">
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1223" s="2"/>
     </row>
-    <row r="1224" spans="1:1">
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1224" s="2"/>
     </row>
-    <row r="1225" spans="1:1">
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1225" s="2"/>
     </row>
-    <row r="1226" spans="1:1">
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1226" s="2"/>
     </row>
-    <row r="1227" spans="1:1">
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1227" s="2"/>
     </row>
-    <row r="1228" spans="1:1">
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1228" s="2"/>
     </row>
-    <row r="1230" spans="1:1">
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1230" s="2"/>
     </row>
-    <row r="1231" spans="1:1">
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1231" s="2"/>
     </row>
-    <row r="1232" spans="1:1">
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1232" s="2"/>
     </row>
-    <row r="1233" spans="1:1">
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1233" s="2"/>
     </row>
-    <row r="1234" spans="1:1">
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1234" s="2"/>
     </row>
-    <row r="1235" spans="1:1">
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1235" s="2"/>
     </row>
-    <row r="1287" spans="1:1">
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1287" s="2"/>
     </row>
-    <row r="1288" spans="1:1">
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1288" s="2"/>
     </row>
-    <row r="1289" spans="1:1">
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1289" s="2"/>
     </row>
-    <row r="1290" spans="1:1">
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1290" s="2"/>
     </row>
-    <row r="1292" spans="1:1">
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1292" s="2"/>
     </row>
-    <row r="1293" spans="1:1">
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1293" s="2"/>
     </row>
-    <row r="1294" spans="1:1">
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1294" s="2"/>
     </row>
-    <row r="1295" spans="1:1">
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1295" s="2"/>
     </row>
-    <row r="1330" spans="1:1">
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1330" s="2"/>
     </row>
-    <row r="1331" spans="1:1">
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1331" s="2"/>
     </row>
-    <row r="1332" spans="1:1">
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1332" s="2"/>
     </row>
-    <row r="1333" spans="1:1">
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1333" s="2"/>
     </row>
-    <row r="1334" spans="1:1">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1334" s="2"/>
     </row>
-    <row r="1335" spans="1:1">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1335" s="2"/>
     </row>
-    <row r="1377" spans="2:4">
+    <row r="1377" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1377" s="2"/>
       <c r="D1377" s="2"/>
     </row>
-    <row r="1378" spans="2:4">
+    <row r="1378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1378" s="2"/>
       <c r="C1378" s="2"/>
       <c r="D1378" s="2"/>
     </row>
-    <row r="1379" spans="2:4">
+    <row r="1379" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1379" s="2"/>
       <c r="C1379" s="2"/>
       <c r="D1379" s="2"/>
     </row>
-    <row r="1380" spans="2:4">
+    <row r="1380" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1380" s="2"/>
       <c r="C1380" s="2"/>
       <c r="D1380" s="2"/>
     </row>
-    <row r="1381" spans="2:4">
+    <row r="1381" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1381" s="2"/>
       <c r="D1381" s="2"/>
     </row>
-    <row r="1444" spans="1:1">
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1444" s="2"/>
     </row>
-    <row r="1445" spans="1:1">
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1445" s="2"/>
     </row>
-    <row r="1446" spans="1:1">
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1446" s="2"/>
     </row>
-    <row r="1447" spans="1:1">
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1447" s="2"/>
     </row>
   </sheetData>
@@ -4697,16 +4706,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
